--- a/Migration Test Suite_n-Data-Requirement-SIT-P1-Set-PA1.xlsx
+++ b/Migration Test Suite_n-Data-Requirement-SIT-P1-Set-PA1.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Migrated-Data Requirement1" sheetId="17" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test-Case-Scenarios'!$D$1:$D$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test-Case-Scenarios'!$L$1:$L$132</definedName>
     <definedName name="Drop" localSheetId="1">#REF!</definedName>
     <definedName name="Drop">#REF!</definedName>
   </definedNames>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="277">
   <si>
     <t xml:space="preserve">Rate Plan </t>
   </si>
@@ -394,10 +394,6 @@
   <si>
     <t>Data should be available
 CIS product 924 is added in CIS Adhoc table with no expiry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balance should be available in Respones as per offers associated with MSISDN
-</t>
   </si>
   <si>
     <t>Offer Type</t>
@@ -461,45 +457,6 @@
 Date as per product
 RenewalDate+Grace days
 &gt;0</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check Data in CIS Renewal table for product 1547
-Product Status
-Renwal Status
-Previous Status
-Network Status
-Next Renewal Date
-Grace Date
-Renewal Count
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Check CIS date</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Start Date - same as CIS
-Expiry Date
-Product Status
-All PAM are attached
-Temporary Block No</t>
-    </r>
   </si>
   <si>
     <t>Below should be presnt in CIS renewal tableValues --
@@ -1291,6 +1248,45 @@
   </si>
   <si>
     <t>Need to develop a new framework to handle update CIS DB and CS API as per the mentioned requirment</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check Data in CIS Renewal table for product 1547
+Product Status
+Renwal Status
+Previous Status
+Network Status
+Next Renewal Date
+Grace Date
+Renewal Count
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check CS date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Start Date - same as CIS
+Expiry Date
+Product Status
+All PAM are attached
+Temporary Block No</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1918,7 +1914,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="3:6">
@@ -1993,9 +1989,9 @@
   </sheetPr>
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2056,7 +2052,7 @@
         <v>24</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="58" hidden="1">
@@ -2085,7 +2081,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>40</v>
@@ -2100,7 +2096,7 @@
         <v>25</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="58" hidden="1">
@@ -2129,7 +2125,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>99</v>
@@ -2144,7 +2140,7 @@
         <v>25</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="43.5" hidden="1">
@@ -2173,13 +2169,13 @@
         <v>5</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>53</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>55</v>
@@ -2188,7 +2184,7 @@
         <v>25</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="29" hidden="1">
@@ -2217,7 +2213,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>34</v>
@@ -2232,10 +2228,10 @@
         <v>25</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="29" hidden="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="29">
       <c r="A6" s="13" t="s">
         <v>45</v>
       </c>
@@ -2261,7 +2257,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>38</v>
@@ -2276,7 +2272,7 @@
         <v>25</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="58" hidden="1">
@@ -2305,7 +2301,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>40</v>
@@ -2320,7 +2316,7 @@
         <v>25</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="58" hidden="1">
@@ -2349,7 +2345,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>99</v>
@@ -2364,7 +2360,7 @@
         <v>25</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="43.5" hidden="1">
@@ -2393,7 +2389,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>53</v>
@@ -2408,7 +2404,7 @@
         <v>25</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="29" hidden="1">
@@ -2437,7 +2433,7 @@
         <v>5</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>34</v>
@@ -2452,10 +2448,10 @@
         <v>25</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="29" hidden="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="29">
       <c r="A11" s="13" t="s">
         <v>50</v>
       </c>
@@ -2481,7 +2477,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>38</v>
@@ -2496,7 +2492,7 @@
         <v>25</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="58" hidden="1">
@@ -2525,7 +2521,7 @@
         <v>5</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>89</v>
@@ -2540,7 +2536,7 @@
         <v>25</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="58" hidden="1">
@@ -2569,7 +2565,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>100</v>
@@ -2584,7 +2580,7 @@
         <v>25</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="43.5" hidden="1">
@@ -2613,7 +2609,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>53</v>
@@ -2628,7 +2624,7 @@
         <v>25</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="29" hidden="1">
@@ -2657,7 +2653,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J15" s="12" t="s">
         <v>34</v>
@@ -2672,10 +2668,10 @@
         <v>25</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="29" hidden="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="29">
       <c r="A16" s="13" t="s">
         <v>59</v>
       </c>
@@ -2701,7 +2697,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J16" s="12" t="s">
         <v>38</v>
@@ -2716,7 +2712,7 @@
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="58" hidden="1">
@@ -2745,7 +2741,7 @@
         <v>5</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J17" s="12" t="s">
         <v>89</v>
@@ -2760,7 +2756,7 @@
         <v>25</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="58" hidden="1">
@@ -2789,7 +2785,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J18" s="12" t="s">
         <v>100</v>
@@ -2804,7 +2800,7 @@
         <v>25</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="43.5" hidden="1">
@@ -2833,7 +2829,7 @@
         <v>5</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J19" s="12" t="s">
         <v>53</v>
@@ -2848,7 +2844,7 @@
         <v>25</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="29" hidden="1">
@@ -2877,7 +2873,7 @@
         <v>5</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J20" s="12" t="s">
         <v>34</v>
@@ -2892,10 +2888,10 @@
         <v>25</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="29" hidden="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="29">
       <c r="A21" s="13" t="s">
         <v>64</v>
       </c>
@@ -2921,7 +2917,7 @@
         <v>5</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J21" s="12" t="s">
         <v>38</v>
@@ -2936,7 +2932,7 @@
         <v>25</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="58" hidden="1">
@@ -2965,7 +2961,7 @@
         <v>5</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J22" s="12" t="s">
         <v>91</v>
@@ -2980,7 +2976,7 @@
         <v>25</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="58" hidden="1">
@@ -3009,7 +3005,7 @@
         <v>5</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J23" s="12" t="s">
         <v>101</v>
@@ -3024,7 +3020,7 @@
         <v>25</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="43.5" hidden="1">
@@ -3053,7 +3049,7 @@
         <v>5</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J24" s="12" t="s">
         <v>53</v>
@@ -3068,7 +3064,7 @@
         <v>25</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="29" hidden="1">
@@ -3097,7 +3093,7 @@
         <v>5</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J25" s="12" t="s">
         <v>34</v>
@@ -3112,10 +3108,10 @@
         <v>25</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="29" hidden="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="29">
       <c r="A26" s="13" t="s">
         <v>69</v>
       </c>
@@ -3141,7 +3137,7 @@
         <v>5</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>38</v>
@@ -3156,7 +3152,7 @@
         <v>25</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="58" hidden="1">
@@ -3185,7 +3181,7 @@
         <v>5</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J27" s="12" t="s">
         <v>91</v>
@@ -3200,7 +3196,7 @@
         <v>25</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="58" hidden="1">
@@ -3229,7 +3225,7 @@
         <v>5</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>92</v>
@@ -3244,7 +3240,7 @@
         <v>25</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="43.5" hidden="1">
@@ -3273,7 +3269,7 @@
         <v>5</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>53</v>
@@ -3288,7 +3284,7 @@
         <v>25</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="29" hidden="1">
@@ -3317,7 +3313,7 @@
         <v>5</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>34</v>
@@ -3332,10 +3328,10 @@
         <v>25</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="29" hidden="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="29">
       <c r="A31" s="13" t="s">
         <v>74</v>
       </c>
@@ -3361,7 +3357,7 @@
         <v>5</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J31" s="12" t="s">
         <v>38</v>
@@ -3376,7 +3372,7 @@
         <v>25</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="58" hidden="1">
@@ -3405,7 +3401,7 @@
         <v>5</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J32" s="12" t="s">
         <v>94</v>
@@ -3420,7 +3416,7 @@
         <v>25</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="58" hidden="1">
@@ -3449,7 +3445,7 @@
         <v>5</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J33" s="12" t="s">
         <v>95</v>
@@ -3464,7 +3460,7 @@
         <v>25</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="43.5" hidden="1">
@@ -3493,7 +3489,7 @@
         <v>5</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J34" s="12" t="s">
         <v>53</v>
@@ -3508,7 +3504,7 @@
         <v>25</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="29" hidden="1">
@@ -3537,7 +3533,7 @@
         <v>5</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J35" s="12" t="s">
         <v>34</v>
@@ -3552,10 +3548,10 @@
         <v>25</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="29" hidden="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="29">
       <c r="A36" s="13" t="s">
         <v>79</v>
       </c>
@@ -3581,7 +3577,7 @@
         <v>5</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J36" s="12" t="s">
         <v>38</v>
@@ -3596,7 +3592,7 @@
         <v>25</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="58" hidden="1">
@@ -3625,7 +3621,7 @@
         <v>5</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J37" s="12" t="s">
         <v>94</v>
@@ -3640,7 +3636,7 @@
         <v>25</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="58" hidden="1">
@@ -3669,7 +3665,7 @@
         <v>5</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J38" s="12" t="s">
         <v>95</v>
@@ -3684,7 +3680,7 @@
         <v>25</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="43.5" hidden="1">
@@ -3713,7 +3709,7 @@
         <v>5</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J39" s="12" t="s">
         <v>53</v>
@@ -3728,7 +3724,7 @@
         <v>25</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="29" hidden="1">
@@ -3757,7 +3753,7 @@
         <v>5</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>34</v>
@@ -3772,10 +3768,10 @@
         <v>25</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="29" hidden="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="29">
       <c r="A41" s="13" t="s">
         <v>84</v>
       </c>
@@ -3801,7 +3797,7 @@
         <v>5</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J41" s="12" t="s">
         <v>38</v>
@@ -3816,21 +3812,21 @@
         <v>25</v>
       </c>
       <c r="N41" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="188.5" hidden="1">
+      <c r="A42" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="188.5">
-      <c r="A42" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>108</v>
       </c>
       <c r="C42" s="13">
         <v>1052</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E42" s="13">
         <v>1547</v>
@@ -3839,19 +3835,19 @@
         <v>1201</v>
       </c>
       <c r="G42" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="J42" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="H42" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="J42" s="12" t="s">
+      <c r="K42" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="K42" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="L42" s="13" t="s">
         <v>26</v>
@@ -3860,21 +3856,21 @@
         <v>25</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="159.5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="159.5" hidden="1">
       <c r="A43" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C43" s="13">
         <v>1052</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E43" s="13">
         <v>1547</v>
@@ -3883,19 +3879,19 @@
         <v>1201</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I43" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="J43" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="J43" s="12" t="s">
-        <v>231</v>
-      </c>
       <c r="K43" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L43" s="13" t="s">
         <v>26</v>
@@ -3904,21 +3900,21 @@
         <v>25</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="203">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="203" hidden="1">
       <c r="A44" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C44" s="13">
         <v>1052</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E44" s="13">
         <v>1547</v>
@@ -3927,19 +3923,19 @@
         <v>1201</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>120</v>
+        <v>276</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L44" s="13" t="s">
         <v>26</v>
@@ -3948,21 +3944,21 @@
         <v>25</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="246.5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="246.5" hidden="1">
       <c r="A45" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C45" s="13">
         <v>1052</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E45" s="13">
         <v>1547</v>
@@ -3971,42 +3967,42 @@
         <v>1201</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L45" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M45" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="72.5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="72.5" hidden="1">
       <c r="A46" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C46" s="13">
         <v>1052</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E46" s="13">
         <v>1547</v>
@@ -4015,42 +4011,42 @@
         <v>1201</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L46" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M46" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="116">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="116" hidden="1">
       <c r="A47" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C47" s="13">
         <v>1052</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E47" s="13">
         <v>1547</v>
@@ -4059,42 +4055,42 @@
         <v>1201</v>
       </c>
       <c r="G47" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="J47" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="H47" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>127</v>
-      </c>
       <c r="K47" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L47" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M47" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="23">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="23" hidden="1">
       <c r="A48" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C48" s="13">
         <v>1051</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E48" s="13">
         <v>1547</v>
@@ -4103,40 +4099,40 @@
         <v>1201</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="23">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="23" hidden="1">
       <c r="A49" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C49" s="13">
         <v>1051</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E49" s="13">
         <v>1547</v>
@@ -4145,40 +4141,40 @@
         <v>1201</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="23">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="23" hidden="1">
       <c r="A50" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C50" s="13">
         <v>1051</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E50" s="13">
         <v>1547</v>
@@ -4187,40 +4183,40 @@
         <v>1201</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="23">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="23" hidden="1">
       <c r="A51" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C51" s="13">
         <v>1051</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E51" s="13">
         <v>1547</v>
@@ -4229,40 +4225,40 @@
         <v>1201</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="23">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="23" hidden="1">
       <c r="A52" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C52" s="13">
         <v>1051</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E52" s="13">
         <v>1547</v>
@@ -4271,40 +4267,40 @@
         <v>1201</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="23">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="23" hidden="1">
       <c r="A53" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C53" s="13">
         <v>1051</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E53" s="13">
         <v>1547</v>
@@ -4313,40 +4309,40 @@
         <v>1201</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="72.5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="72.5" hidden="1">
       <c r="A54" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C54" s="13">
         <v>1051</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E54" s="13">
         <v>1547</v>
@@ -4355,42 +4351,42 @@
         <v>1201</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M54" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="72.5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="72.5" hidden="1">
       <c r="A55" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C55" s="13">
         <v>1051</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E55" s="13">
         <v>1547</v>
@@ -4399,42 +4395,42 @@
         <v>1201</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M55" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="23">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="23" hidden="1">
       <c r="A56" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C56" s="13">
         <v>1051</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E56" s="13">
         <v>1547</v>
@@ -4443,42 +4439,42 @@
         <v>1201</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H56" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M56" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="23">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="23" hidden="1">
       <c r="A57" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C57" s="13">
         <v>1051</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E57" s="13">
         <v>1547</v>
@@ -4487,33 +4483,33 @@
         <v>1201</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H57" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M57" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="87" hidden="1">
       <c r="A58" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>7</v>
@@ -4522,7 +4518,7 @@
         <v>1002</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E58" s="1">
         <v>1669</v>
@@ -4531,22 +4527,22 @@
         <v>1142</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H58" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J58" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="K58" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="K58" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="L58" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M58" s="13" t="s">
         <v>25</v>
@@ -4555,7 +4551,7 @@
     </row>
     <row r="59" spans="1:14" ht="101.5" hidden="1">
       <c r="A59" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>7</v>
@@ -4564,7 +4560,7 @@
         <v>1002</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E59" s="1">
         <v>1669</v>
@@ -4573,22 +4569,22 @@
         <v>1142</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H59" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M59" s="13" t="s">
         <v>25</v>
@@ -4597,7 +4593,7 @@
     </row>
     <row r="60" spans="1:14" ht="29" hidden="1">
       <c r="A60" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>7</v>
@@ -4606,7 +4602,7 @@
         <v>1002</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E60" s="1">
         <v>1669</v>
@@ -4615,22 +4611,22 @@
         <v>1142</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H60" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L60" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M60" s="13" t="s">
         <v>25</v>
@@ -4639,7 +4635,7 @@
     </row>
     <row r="61" spans="1:14" ht="101.5" hidden="1">
       <c r="A61" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>7</v>
@@ -4648,7 +4644,7 @@
         <v>1002</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E61" s="1">
         <v>1669</v>
@@ -4657,19 +4653,19 @@
         <v>1142</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H61" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L61" s="13" t="s">
         <v>41</v>
@@ -4678,12 +4674,12 @@
         <v>25</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="188.5" hidden="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="188.5">
       <c r="A62" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>7</v>
@@ -4692,7 +4688,7 @@
         <v>1002</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E62" s="1">
         <v>1669</v>
@@ -4701,19 +4697,19 @@
         <v>1142</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H62" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J62" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="K62" s="12" t="s">
         <v>158</v>
-      </c>
-      <c r="K62" s="12" t="s">
-        <v>160</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>42</v>
@@ -4722,12 +4718,12 @@
         <v>25</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="23" hidden="1">
       <c r="A63" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>4</v>
@@ -4736,7 +4732,7 @@
         <v>1001</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E63" s="1">
         <v>1669</v>
@@ -4745,31 +4741,31 @@
         <v>1142</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H63" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I63" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M63" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="23" hidden="1">
       <c r="A64" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>4</v>
@@ -4778,7 +4774,7 @@
         <v>1001</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E64" s="1">
         <v>1669</v>
@@ -4787,31 +4783,31 @@
         <v>1142</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H64" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I64" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M64" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="23" hidden="1">
       <c r="A65" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>4</v>
@@ -4820,7 +4816,7 @@
         <v>1001</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E65" s="1">
         <v>1669</v>
@@ -4829,31 +4825,31 @@
         <v>1142</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I65" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M65" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="23" hidden="1">
       <c r="A66" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>4</v>
@@ -4862,7 +4858,7 @@
         <v>1001</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E66" s="1">
         <v>1669</v>
@@ -4871,16 +4867,16 @@
         <v>1142</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H66" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I66" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="13" t="s">
@@ -4890,12 +4886,12 @@
         <v>25</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="23" hidden="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="23">
       <c r="A67" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>4</v>
@@ -4904,7 +4900,7 @@
         <v>1001</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E67" s="1">
         <v>1669</v>
@@ -4913,16 +4909,16 @@
         <v>1142</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H67" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I67" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="2" t="s">
@@ -4932,12 +4928,12 @@
         <v>25</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="23" hidden="1">
       <c r="A68" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>10</v>
@@ -4946,7 +4942,7 @@
         <v>1009</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E68" s="1">
         <v>1669</v>
@@ -4955,31 +4951,31 @@
         <v>1142</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H68" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I68" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M68" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="23" hidden="1">
       <c r="A69" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>10</v>
@@ -4988,7 +4984,7 @@
         <v>1009</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E69" s="1">
         <v>1669</v>
@@ -4997,31 +4993,31 @@
         <v>1142</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H69" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I69" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M69" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="23" hidden="1">
       <c r="A70" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>10</v>
@@ -5030,7 +5026,7 @@
         <v>1009</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E70" s="1">
         <v>1669</v>
@@ -5039,31 +5035,31 @@
         <v>1142</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H70" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I70" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M70" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="23" hidden="1">
       <c r="A71" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>10</v>
@@ -5072,7 +5068,7 @@
         <v>1009</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E71" s="1">
         <v>1669</v>
@@ -5081,16 +5077,16 @@
         <v>1142</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H71" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="13" t="s">
@@ -5100,12 +5096,12 @@
         <v>25</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="23" hidden="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="23">
       <c r="A72" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>10</v>
@@ -5114,7 +5110,7 @@
         <v>1009</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E72" s="1">
         <v>1669</v>
@@ -5123,16 +5119,16 @@
         <v>1142</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H72" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I72" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2" t="s">
@@ -5142,21 +5138,21 @@
         <v>25</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="23" hidden="1">
       <c r="A73" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C73" s="7">
         <v>1052</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E73" s="1">
         <v>1669</v>
@@ -5165,40 +5161,40 @@
         <v>1142</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H73" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I73" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M73" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="23" hidden="1">
       <c r="A74" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C74" s="7">
         <v>1052</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E74" s="1">
         <v>1669</v>
@@ -5207,40 +5203,40 @@
         <v>1142</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I74" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M74" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="23" hidden="1">
       <c r="A75" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C75" s="7">
         <v>1052</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E75" s="1">
         <v>1669</v>
@@ -5249,40 +5245,40 @@
         <v>1142</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H75" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I75" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M75" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="23" hidden="1">
       <c r="A76" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C76" s="7">
         <v>1052</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E76" s="1">
         <v>1669</v>
@@ -5291,16 +5287,16 @@
         <v>1142</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H76" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I76" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="13" t="s">
@@ -5310,21 +5306,21 @@
         <v>25</v>
       </c>
       <c r="N76" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="23">
+      <c r="A77" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B77" s="13" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="23" hidden="1">
-      <c r="A77" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>108</v>
       </c>
       <c r="C77" s="7">
         <v>1052</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E77" s="1">
         <v>1669</v>
@@ -5333,16 +5329,16 @@
         <v>1142</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I77" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="2" t="s">
@@ -5352,21 +5348,21 @@
         <v>25</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="23" hidden="1">
       <c r="A78" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C78" s="7">
         <v>1051</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E78" s="1">
         <v>1669</v>
@@ -5375,40 +5371,40 @@
         <v>1142</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I78" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M78" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="23" hidden="1">
       <c r="A79" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C79" s="7">
         <v>1051</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E79" s="1">
         <v>1669</v>
@@ -5417,40 +5413,40 @@
         <v>1142</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I79" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M79" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="23" hidden="1">
       <c r="A80" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C80" s="7">
         <v>1051</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E80" s="1">
         <v>1669</v>
@@ -5459,40 +5455,40 @@
         <v>1142</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H80" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I80" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M80" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="23" hidden="1">
       <c r="A81" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C81" s="7">
         <v>1051</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E81" s="1">
         <v>1669</v>
@@ -5501,16 +5497,16 @@
         <v>1142</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H81" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I81" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="13" t="s">
@@ -5520,21 +5516,21 @@
         <v>25</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="23" hidden="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="23">
       <c r="A82" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C82" s="7">
         <v>1051</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E82" s="1">
         <v>1669</v>
@@ -5543,16 +5539,16 @@
         <v>1142</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H82" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I82" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="2" t="s">
@@ -5562,12 +5558,12 @@
         <v>25</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="23" hidden="1">
       <c r="A83" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>9</v>
@@ -5576,7 +5572,7 @@
         <v>1008</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E83" s="1">
         <v>1669</v>
@@ -5585,31 +5581,31 @@
         <v>1142</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I83" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M83" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="23" hidden="1">
       <c r="A84" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>9</v>
@@ -5618,7 +5614,7 @@
         <v>1008</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E84" s="1">
         <v>1669</v>
@@ -5627,31 +5623,31 @@
         <v>1142</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H84" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I84" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M84" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="23" hidden="1">
       <c r="A85" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>9</v>
@@ -5660,7 +5656,7 @@
         <v>1008</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E85" s="1">
         <v>1669</v>
@@ -5669,31 +5665,31 @@
         <v>1142</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H85" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I85" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M85" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="23" hidden="1">
       <c r="A86" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>9</v>
@@ -5702,7 +5698,7 @@
         <v>1008</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E86" s="1">
         <v>1669</v>
@@ -5711,16 +5707,16 @@
         <v>1142</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H86" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I86" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="13" t="s">
@@ -5730,12 +5726,12 @@
         <v>25</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" ht="23" hidden="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="23">
       <c r="A87" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>9</v>
@@ -5744,7 +5740,7 @@
         <v>1008</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E87" s="1">
         <v>1669</v>
@@ -5753,16 +5749,16 @@
         <v>1142</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H87" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I87" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="2" t="s">
@@ -5772,12 +5768,12 @@
         <v>25</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="23" hidden="1">
       <c r="A88" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>11</v>
@@ -5786,7 +5782,7 @@
         <v>1152</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E88" s="1">
         <v>1674</v>
@@ -5795,33 +5791,33 @@
         <v>1148</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H88" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I88" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M88" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="23" hidden="1">
       <c r="A89" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>11</v>
@@ -5830,7 +5826,7 @@
         <v>1152</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E89" s="1">
         <v>1674</v>
@@ -5839,33 +5835,33 @@
         <v>1148</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H89" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I89" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J89" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M89" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="23" hidden="1">
       <c r="A90" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>11</v>
@@ -5874,7 +5870,7 @@
         <v>1152</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E90" s="1">
         <v>1674</v>
@@ -5883,33 +5879,33 @@
         <v>1148</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H90" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I90" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J90" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M90" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="23" hidden="1">
       <c r="A91" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>11</v>
@@ -5918,7 +5914,7 @@
         <v>1152</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E91" s="1">
         <v>1674</v>
@@ -5927,33 +5923,33 @@
         <v>1148</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H91" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I91" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J91" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M91" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="23" hidden="1">
       <c r="A92" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>11</v>
@@ -5962,7 +5958,7 @@
         <v>1152</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E92" s="1">
         <v>1674</v>
@@ -5971,33 +5967,33 @@
         <v>1148</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H92" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I92" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J92" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M92" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="23" hidden="1">
       <c r="A93" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>11</v>
@@ -6006,7 +6002,7 @@
         <v>1152</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E93" s="1">
         <v>1674</v>
@@ -6015,33 +6011,33 @@
         <v>1148</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H93" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I93" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J93" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M93" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="23" hidden="1">
       <c r="A94" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>11</v>
@@ -6050,7 +6046,7 @@
         <v>1152</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E94" s="1">
         <v>1674</v>
@@ -6059,33 +6055,33 @@
         <v>1148</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H94" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I94" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J94" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M94" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="23" hidden="1">
       <c r="A95" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>8</v>
@@ -6094,7 +6090,7 @@
         <v>1004</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E95" s="1">
         <v>1143</v>
@@ -6103,33 +6099,33 @@
         <v>4617</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H95" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I95" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J95" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M95" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="23" hidden="1">
       <c r="A96" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>8</v>
@@ -6138,7 +6134,7 @@
         <v>1004</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E96" s="1">
         <v>1143</v>
@@ -6147,33 +6143,33 @@
         <v>4617</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H96" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I96" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M96" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="23" hidden="1">
       <c r="A97" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>8</v>
@@ -6182,7 +6178,7 @@
         <v>1004</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E97" s="1">
         <v>1143</v>
@@ -6191,33 +6187,33 @@
         <v>4617</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H97" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I97" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M97" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="23" hidden="1">
       <c r="A98" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>7</v>
@@ -6226,7 +6222,7 @@
         <v>1002</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E98" s="1">
         <v>1236</v>
@@ -6235,33 +6231,33 @@
         <v>4503</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H98" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I98" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M98" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="23" hidden="1">
       <c r="A99" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>12</v>
@@ -6279,28 +6275,28 @@
         <v>1149</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H99" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I99" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M99" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:14" hidden="1">
@@ -6780,10 +6776,10 @@
       <c r="A132" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D132">
+  <autoFilter ref="L1:L132">
     <filterColumn colId="0">
       <filters>
-        <filter val="Auto Topup_20"/>
+        <filter val="Add-Offer"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6809,16 +6805,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="29">
@@ -6827,20 +6823,20 @@
         <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="29">
       <c r="A3" s="2"/>
       <c r="B3" s="34"/>
       <c r="C3" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6849,29 +6845,29 @@
         <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="35"/>
       <c r="C6" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -6881,20 +6877,20 @@
         <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>241</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" s="34"/>
       <c r="C8" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29">
@@ -6903,105 +6899,105 @@
         <v>41</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29">
       <c r="A10" s="2"/>
       <c r="B10" s="34"/>
       <c r="C10" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="72.5">
       <c r="A11" s="2"/>
       <c r="B11" s="34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="29">
       <c r="A12" s="2"/>
       <c r="B12" s="34"/>
       <c r="C12" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="29">
       <c r="A13" s="2"/>
       <c r="B13" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="29">
       <c r="A14" s="2"/>
       <c r="B14" s="33"/>
       <c r="C14" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="33"/>
       <c r="C16" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="29" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="32"/>
       <c r="C18" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D18" s="31"/>
     </row>
@@ -7009,7 +7005,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="32"/>
       <c r="C19" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D19" s="31"/>
     </row>
@@ -7049,25 +7045,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D1" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="25" t="s">
         <v>266</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="29">
@@ -7078,10 +7074,10 @@
         <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>241</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>243</v>
       </c>
       <c r="E2" s="24">
         <v>43731</v>
@@ -7090,17 +7086,17 @@
         <v>43734</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="29">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="E3" s="24">
         <v>43732</v>
@@ -7109,7 +7105,7 @@
         <v>43734</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="29">
@@ -7120,10 +7116,10 @@
         <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E4" s="24">
         <v>43733</v>
@@ -7132,7 +7128,7 @@
         <v>43734</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="29">
@@ -7143,10 +7139,10 @@
         <v>42</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E5" s="24">
         <v>43737</v>
@@ -7155,17 +7151,17 @@
         <v>43738</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29">
       <c r="A6" s="34"/>
       <c r="B6" s="34"/>
       <c r="C6" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E6" s="24">
         <v>43737</v>
@@ -7183,10 +7179,10 @@
         <v>41</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E7" s="24">
         <v>43709</v>
@@ -7195,17 +7191,17 @@
         <v>43709</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="29">
       <c r="A8" s="34"/>
       <c r="B8" s="34"/>
       <c r="C8" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E8" s="24">
         <v>43709</v>
@@ -7214,7 +7210,7 @@
         <v>43709</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -7222,13 +7218,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="E9" s="24">
         <v>43710</v>
@@ -7242,10 +7238,10 @@
       <c r="A10" s="34"/>
       <c r="B10" s="33"/>
       <c r="C10" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="E10" s="24">
         <v>43710</v>
@@ -7260,13 +7256,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E11" s="45">
         <v>43710</v>
@@ -7280,7 +7276,7 @@
       <c r="A12" s="34"/>
       <c r="B12" s="35"/>
       <c r="C12" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="45"/>
@@ -7292,13 +7288,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E13" s="46">
         <v>43714</v>
@@ -7307,27 +7303,27 @@
         <v>43715</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="34"/>
       <c r="B14" s="32"/>
       <c r="C14" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="38" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="34"/>
       <c r="B15" s="32"/>
       <c r="C15" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="46"/>
@@ -7339,13 +7335,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C16" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>246</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>248</v>
       </c>
       <c r="E16" s="27">
         <v>43716</v>
@@ -7354,17 +7350,17 @@
         <v>43718</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="29">
       <c r="A17" s="43"/>
       <c r="B17" s="43"/>
       <c r="C17" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" s="28" t="s">
         <v>247</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>249</v>
       </c>
       <c r="E17" s="27">
         <v>43716</v>
@@ -7379,13 +7375,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E18" s="27">
         <v>43721</v>
@@ -7399,10 +7395,10 @@
       <c r="A19" s="43"/>
       <c r="B19" s="44"/>
       <c r="C19" s="26" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E19" s="30">
         <v>43721</v>
@@ -7414,15 +7410,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G19"/>
@@ -7439,6 +7426,15 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7481,7 +7477,7 @@
         <v>87</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -8409,13 +8405,13 @@
         <v>41</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D43" s="13">
         <v>1052</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F43" s="13">
         <v>1547</v>
@@ -8432,13 +8428,13 @@
         <v>42</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D44" s="13">
         <v>1052</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F44" s="13">
         <v>1547</v>
@@ -8455,13 +8451,13 @@
         <v>43</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D45" s="13">
         <v>1052</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F45" s="13">
         <v>1547</v>
@@ -8478,13 +8474,13 @@
         <v>44</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" s="13">
         <v>1052</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F46" s="13">
         <v>1547</v>
@@ -8501,13 +8497,13 @@
         <v>45</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D47" s="13">
         <v>1052</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F47" s="13">
         <v>1547</v>
@@ -8524,13 +8520,13 @@
         <v>46</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D48" s="13">
         <v>1052</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F48" s="13">
         <v>1547</v>
@@ -8547,13 +8543,13 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D49" s="13">
         <v>1051</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F49" s="13">
         <v>1547</v>
@@ -8570,13 +8566,13 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D50" s="13">
         <v>1051</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F50" s="13">
         <v>1547</v>
@@ -8593,13 +8589,13 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D51" s="13">
         <v>1051</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F51" s="13">
         <v>1547</v>
@@ -8616,13 +8612,13 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D52" s="13">
         <v>1051</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F52" s="13">
         <v>1547</v>
@@ -8639,13 +8635,13 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D53" s="13">
         <v>1051</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F53" s="13">
         <v>1547</v>
@@ -8662,13 +8658,13 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D54" s="13">
         <v>1051</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F54" s="13">
         <v>1547</v>
@@ -8685,13 +8681,13 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D55" s="13">
         <v>1051</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F55" s="13">
         <v>1547</v>
@@ -8708,13 +8704,13 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D56" s="13">
         <v>1051</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F56" s="13">
         <v>1547</v>
@@ -8731,13 +8727,13 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D57" s="13">
         <v>1051</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F57" s="13">
         <v>1547</v>
@@ -8754,13 +8750,13 @@
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D58" s="13">
         <v>1051</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F58" s="13">
         <v>1547</v>
@@ -8783,7 +8779,7 @@
         <v>1152</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F59" s="1">
         <v>1674</v>
@@ -8806,7 +8802,7 @@
         <v>1152</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F60" s="1">
         <v>1674</v>
@@ -8829,7 +8825,7 @@
         <v>1152</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F61" s="1">
         <v>1674</v>
@@ -8852,7 +8848,7 @@
         <v>1152</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F62" s="1">
         <v>1674</v>
@@ -8875,7 +8871,7 @@
         <v>1152</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F63" s="1">
         <v>1674</v>
@@ -8898,7 +8894,7 @@
         <v>1152</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F64" s="1">
         <v>1674</v>
@@ -8921,7 +8917,7 @@
         <v>1152</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F65" s="1">
         <v>1674</v>
@@ -8944,7 +8940,7 @@
         <v>1004</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F66" s="1">
         <v>1143</v>
@@ -8967,7 +8963,7 @@
         <v>1004</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F67" s="1">
         <v>1143</v>
@@ -8990,7 +8986,7 @@
         <v>1004</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F68" s="1">
         <v>1143</v>
@@ -9013,7 +9009,7 @@
         <v>1002</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F69" s="1">
         <v>1236</v>
@@ -9059,7 +9055,7 @@
         <v>1002</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F71" s="1">
         <v>1669</v>
@@ -9082,7 +9078,7 @@
         <v>1002</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F72" s="1">
         <v>1669</v>
@@ -9105,7 +9101,7 @@
         <v>1002</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F73" s="1">
         <v>1669</v>
@@ -9128,7 +9124,7 @@
         <v>1002</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F74" s="1">
         <v>1669</v>
@@ -9151,7 +9147,7 @@
         <v>1002</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F75" s="1">
         <v>1669</v>
@@ -9174,7 +9170,7 @@
         <v>1001</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F76" s="1">
         <v>1669</v>
@@ -9197,7 +9193,7 @@
         <v>1001</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F77" s="1">
         <v>1669</v>
@@ -9220,7 +9216,7 @@
         <v>1001</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F78" s="1">
         <v>1669</v>
@@ -9243,7 +9239,7 @@
         <v>1001</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F79" s="1">
         <v>1669</v>
@@ -9266,7 +9262,7 @@
         <v>1001</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F80" s="1">
         <v>1669</v>
@@ -9289,7 +9285,7 @@
         <v>1009</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F81" s="1">
         <v>1669</v>
@@ -9312,7 +9308,7 @@
         <v>1009</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F82" s="1">
         <v>1669</v>
@@ -9335,7 +9331,7 @@
         <v>1009</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F83" s="1">
         <v>1669</v>
@@ -9358,7 +9354,7 @@
         <v>1009</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F84" s="1">
         <v>1669</v>
@@ -9381,7 +9377,7 @@
         <v>1009</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F85" s="1">
         <v>1669</v>
@@ -9398,13 +9394,13 @@
         <v>84</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D86" s="7">
         <v>1052</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F86" s="1">
         <v>1669</v>
@@ -9421,13 +9417,13 @@
         <v>85</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D87" s="7">
         <v>1052</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F87" s="1">
         <v>1669</v>
@@ -9444,13 +9440,13 @@
         <v>86</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D88" s="7">
         <v>1052</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F88" s="1">
         <v>1669</v>
@@ -9467,13 +9463,13 @@
         <v>87</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D89" s="7">
         <v>1052</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F89" s="1">
         <v>1669</v>
@@ -9490,13 +9486,13 @@
         <v>88</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D90" s="7">
         <v>1052</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F90" s="1">
         <v>1669</v>
@@ -9513,13 +9509,13 @@
         <v>89</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D91" s="7">
         <v>1051</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F91" s="1">
         <v>1669</v>
@@ -9536,13 +9532,13 @@
         <v>90</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D92" s="7">
         <v>1051</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F92" s="1">
         <v>1669</v>
@@ -9559,13 +9555,13 @@
         <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D93" s="7">
         <v>1051</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F93" s="1">
         <v>1669</v>
@@ -9582,13 +9578,13 @@
         <v>92</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D94" s="7">
         <v>1051</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F94" s="1">
         <v>1669</v>
@@ -9605,13 +9601,13 @@
         <v>93</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D95" s="7">
         <v>1051</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F95" s="1">
         <v>1669</v>
@@ -9634,7 +9630,7 @@
         <v>1008</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F96" s="1">
         <v>1669</v>
@@ -9657,7 +9653,7 @@
         <v>1008</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F97" s="1">
         <v>1669</v>
@@ -9680,7 +9676,7 @@
         <v>1008</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F98" s="1">
         <v>1669</v>
@@ -9703,7 +9699,7 @@
         <v>1008</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F99" s="1">
         <v>1669</v>
@@ -9726,7 +9722,7 @@
         <v>1008</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F100" s="1">
         <v>1669</v>
@@ -9749,7 +9745,7 @@
         <v>1152</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F101" s="1">
         <v>1674</v>
@@ -9772,7 +9768,7 @@
         <v>1152</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F102" s="1">
         <v>1674</v>
@@ -9795,7 +9791,7 @@
         <v>1152</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F103" s="1">
         <v>1674</v>
@@ -9818,7 +9814,7 @@
         <v>1152</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F104" s="1">
         <v>1674</v>
@@ -9841,7 +9837,7 @@
         <v>1152</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F105" s="1">
         <v>1674</v>
@@ -9864,7 +9860,7 @@
         <v>1152</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F106" s="1">
         <v>1674</v>
@@ -9887,7 +9883,7 @@
         <v>1152</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F107" s="1">
         <v>1674</v>
@@ -9910,7 +9906,7 @@
         <v>1004</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F108" s="1">
         <v>1143</v>
@@ -9933,7 +9929,7 @@
         <v>1004</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F109" s="1">
         <v>1143</v>
@@ -9956,7 +9952,7 @@
         <v>1004</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F110" s="1">
         <v>1143</v>
@@ -9979,7 +9975,7 @@
         <v>1002</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F111" s="1">
         <v>1236</v>

--- a/Migration Test Suite_n-Data-Requirement-SIT-P1-Set-PA1.xlsx
+++ b/Migration Test Suite_n-Data-Requirement-SIT-P1-Set-PA1.xlsx
@@ -1989,9 +1989,9 @@
   </sheetPr>
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1999,7 +1999,7 @@
     <col min="2" max="2" width="23.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7265625" customWidth="1"/>
     <col min="4" max="4" width="16.453125" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="62.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
@@ -2143,7 +2143,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="43.5" hidden="1">
+    <row r="4" spans="1:14" ht="43.5">
       <c r="A4" s="13" t="s">
         <v>43</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="29">
+    <row r="6" spans="1:14" ht="29" hidden="1">
       <c r="A6" s="13" t="s">
         <v>45</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="43.5" hidden="1">
+    <row r="9" spans="1:14" ht="43.5">
       <c r="A9" s="13" t="s">
         <v>48</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="29">
+    <row r="11" spans="1:14" ht="29" hidden="1">
       <c r="A11" s="13" t="s">
         <v>50</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="43.5" hidden="1">
+    <row r="14" spans="1:14" ht="43.5">
       <c r="A14" s="13" t="s">
         <v>57</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="29">
+    <row r="16" spans="1:14" ht="29" hidden="1">
       <c r="A16" s="13" t="s">
         <v>59</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="43.5" hidden="1">
+    <row r="19" spans="1:14" ht="43.5">
       <c r="A19" s="13" t="s">
         <v>62</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="29">
+    <row r="21" spans="1:14" ht="29" hidden="1">
       <c r="A21" s="13" t="s">
         <v>64</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="43.5" hidden="1">
+    <row r="24" spans="1:14" ht="43.5">
       <c r="A24" s="13" t="s">
         <v>67</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="29">
+    <row r="26" spans="1:14" ht="29" hidden="1">
       <c r="A26" s="13" t="s">
         <v>69</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="43.5" hidden="1">
+    <row r="29" spans="1:14" ht="43.5">
       <c r="A29" s="13" t="s">
         <v>72</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="29">
+    <row r="31" spans="1:14" ht="29" hidden="1">
       <c r="A31" s="13" t="s">
         <v>74</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="43.5" hidden="1">
+    <row r="34" spans="1:14" ht="43.5">
       <c r="A34" s="13" t="s">
         <v>77</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="29">
+    <row r="36" spans="1:14" ht="29" hidden="1">
       <c r="A36" s="13" t="s">
         <v>79</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="43.5" hidden="1">
+    <row r="39" spans="1:14" ht="43.5">
       <c r="A39" s="13" t="s">
         <v>82</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="29">
+    <row r="41" spans="1:14" ht="29" hidden="1">
       <c r="A41" s="13" t="s">
         <v>84</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="188.5">
+    <row r="62" spans="1:14" ht="188.5" hidden="1">
       <c r="A62" s="13" t="s">
         <v>189</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="23">
+    <row r="67" spans="1:14" ht="23" hidden="1">
       <c r="A67" s="13" t="s">
         <v>194</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="23">
+    <row r="72" spans="1:14" ht="23" hidden="1">
       <c r="A72" s="13" t="s">
         <v>199</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="23">
+    <row r="77" spans="1:14" ht="23" hidden="1">
       <c r="A77" s="13" t="s">
         <v>204</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="23">
+    <row r="82" spans="1:14" ht="23" hidden="1">
       <c r="A82" s="13" t="s">
         <v>209</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="23">
+    <row r="87" spans="1:14" ht="23" hidden="1">
       <c r="A87" s="13" t="s">
         <v>214</v>
       </c>
@@ -6779,7 +6779,7 @@
   <autoFilter ref="L1:L132">
     <filterColumn colId="0">
       <filters>
-        <filter val="Add-Offer"/>
+        <filter val="Balance Query"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -7410,6 +7410,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G19"/>
@@ -7426,15 +7435,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Migration Test Suite_n-Data-Requirement-SIT-P1-Set-PA1.xlsx
+++ b/Migration Test Suite_n-Data-Requirement-SIT-P1-Set-PA1.xlsx
@@ -1989,9 +1989,9 @@
   </sheetPr>
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2143,7 +2143,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="43.5">
+    <row r="4" spans="1:14" ht="43.5" hidden="1">
       <c r="A4" s="13" t="s">
         <v>43</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="29" hidden="1">
+    <row r="6" spans="1:14" ht="29">
       <c r="A6" s="13" t="s">
         <v>45</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="43.5">
+    <row r="9" spans="1:14" ht="43.5" hidden="1">
       <c r="A9" s="13" t="s">
         <v>48</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="29" hidden="1">
+    <row r="11" spans="1:14" ht="29">
       <c r="A11" s="13" t="s">
         <v>50</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="43.5">
+    <row r="14" spans="1:14" ht="43.5" hidden="1">
       <c r="A14" s="13" t="s">
         <v>57</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="29" hidden="1">
+    <row r="16" spans="1:14" ht="29">
       <c r="A16" s="13" t="s">
         <v>59</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="43.5">
+    <row r="19" spans="1:14" ht="43.5" hidden="1">
       <c r="A19" s="13" t="s">
         <v>62</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="29" hidden="1">
+    <row r="21" spans="1:14" ht="29">
       <c r="A21" s="13" t="s">
         <v>64</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="43.5">
+    <row r="24" spans="1:14" ht="43.5" hidden="1">
       <c r="A24" s="13" t="s">
         <v>67</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="29" hidden="1">
+    <row r="26" spans="1:14" ht="29">
       <c r="A26" s="13" t="s">
         <v>69</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="43.5">
+    <row r="29" spans="1:14" ht="43.5" hidden="1">
       <c r="A29" s="13" t="s">
         <v>72</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="29" hidden="1">
+    <row r="31" spans="1:14" ht="29">
       <c r="A31" s="13" t="s">
         <v>74</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="43.5">
+    <row r="34" spans="1:14" ht="43.5" hidden="1">
       <c r="A34" s="13" t="s">
         <v>77</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="29" hidden="1">
+    <row r="36" spans="1:14" ht="29">
       <c r="A36" s="13" t="s">
         <v>79</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="43.5">
+    <row r="39" spans="1:14" ht="43.5" hidden="1">
       <c r="A39" s="13" t="s">
         <v>82</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="29" hidden="1">
+    <row r="41" spans="1:14" ht="29">
       <c r="A41" s="13" t="s">
         <v>84</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="188.5" hidden="1">
+    <row r="62" spans="1:14" ht="57" customHeight="1">
       <c r="A62" s="13" t="s">
         <v>189</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="23" hidden="1">
+    <row r="66" spans="1:14" ht="23">
       <c r="A66" s="13" t="s">
         <v>193</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="23" hidden="1">
+    <row r="67" spans="1:14" ht="23">
       <c r="A67" s="13" t="s">
         <v>194</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="23" hidden="1">
+    <row r="72" spans="1:14" ht="23">
       <c r="A72" s="13" t="s">
         <v>199</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="23" hidden="1">
+    <row r="77" spans="1:14" ht="23">
       <c r="A77" s="13" t="s">
         <v>204</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="23" hidden="1">
+    <row r="82" spans="1:14" ht="23">
       <c r="A82" s="13" t="s">
         <v>209</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="23" hidden="1">
+    <row r="87" spans="1:14" ht="23">
       <c r="A87" s="13" t="s">
         <v>214</v>
       </c>
@@ -6779,7 +6779,7 @@
   <autoFilter ref="L1:L132">
     <filterColumn colId="0">
       <filters>
-        <filter val="Balance Query"/>
+        <filter val="Add-Offer"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -7410,15 +7410,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G19"/>
@@ -7435,6 +7426,15 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Migration Test Suite_n-Data-Requirement-SIT-P1-Set-PA1.xlsx
+++ b/Migration Test Suite_n-Data-Requirement-SIT-P1-Set-PA1.xlsx
@@ -1989,9 +1989,9 @@
   </sheetPr>
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2231,7 +2231,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="29">
+    <row r="6" spans="1:14" ht="29" hidden="1">
       <c r="A6" s="13" t="s">
         <v>45</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="29">
+    <row r="11" spans="1:14" ht="29" hidden="1">
       <c r="A11" s="13" t="s">
         <v>50</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="29">
+    <row r="16" spans="1:14" ht="29" hidden="1">
       <c r="A16" s="13" t="s">
         <v>59</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="29">
+    <row r="21" spans="1:14" ht="29" hidden="1">
       <c r="A21" s="13" t="s">
         <v>64</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="29">
+    <row r="26" spans="1:14" ht="29" hidden="1">
       <c r="A26" s="13" t="s">
         <v>69</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="29">
+    <row r="31" spans="1:14" ht="29" hidden="1">
       <c r="A31" s="13" t="s">
         <v>74</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="29">
+    <row r="36" spans="1:14" ht="29" hidden="1">
       <c r="A36" s="13" t="s">
         <v>79</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="29">
+    <row r="41" spans="1:14" ht="29" hidden="1">
       <c r="A41" s="13" t="s">
         <v>84</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="72.5" hidden="1">
+    <row r="54" spans="1:14" ht="72.5">
       <c r="A54" s="13" t="s">
         <v>181</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="72.5" hidden="1">
+    <row r="55" spans="1:14" ht="72.5">
       <c r="A55" s="13" t="s">
         <v>182</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="23" hidden="1">
+    <row r="56" spans="1:14" ht="23">
       <c r="A56" s="13" t="s">
         <v>183</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="23" hidden="1">
+    <row r="57" spans="1:14" ht="23">
       <c r="A57" s="13" t="s">
         <v>184</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="57" customHeight="1">
+    <row r="62" spans="1:14" ht="57" hidden="1" customHeight="1">
       <c r="A62" s="13" t="s">
         <v>189</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="23">
+    <row r="66" spans="1:14" ht="23" hidden="1">
       <c r="A66" s="13" t="s">
         <v>193</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="23">
+    <row r="67" spans="1:14" ht="23" hidden="1">
       <c r="A67" s="13" t="s">
         <v>194</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="23">
+    <row r="72" spans="1:14" ht="23" hidden="1">
       <c r="A72" s="13" t="s">
         <v>199</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="23">
+    <row r="77" spans="1:14" ht="23" hidden="1">
       <c r="A77" s="13" t="s">
         <v>204</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="23">
+    <row r="82" spans="1:14" ht="23" hidden="1">
       <c r="A82" s="13" t="s">
         <v>209</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="23">
+    <row r="87" spans="1:14" ht="23" hidden="1">
       <c r="A87" s="13" t="s">
         <v>214</v>
       </c>
@@ -6779,7 +6779,7 @@
   <autoFilter ref="L1:L132">
     <filterColumn colId="0">
       <filters>
-        <filter val="Add-Offer"/>
+        <filter val="CIS CDR Check"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Migration Test Suite_n-Data-Requirement-SIT-P1-Set-PA1.xlsx
+++ b/Migration Test Suite_n-Data-Requirement-SIT-P1-Set-PA1.xlsx
@@ -1984,14 +1984,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2055,7 +2055,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="58" hidden="1">
+    <row r="2" spans="1:14" ht="58">
       <c r="A2" s="13" t="s">
         <v>30</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="58" hidden="1">
+    <row r="3" spans="1:14" ht="58">
       <c r="A3" s="13" t="s">
         <v>31</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="43.5" hidden="1">
+    <row r="4" spans="1:14" ht="43.5">
       <c r="A4" s="13" t="s">
         <v>43</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="29" hidden="1">
+    <row r="5" spans="1:14" ht="29">
       <c r="A5" s="13" t="s">
         <v>44</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="29" hidden="1">
+    <row r="6" spans="1:14" ht="29">
       <c r="A6" s="13" t="s">
         <v>45</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="58" hidden="1">
+    <row r="7" spans="1:14" ht="58">
       <c r="A7" s="13" t="s">
         <v>46</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="58" hidden="1">
+    <row r="8" spans="1:14" ht="58">
       <c r="A8" s="13" t="s">
         <v>47</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="43.5" hidden="1">
+    <row r="9" spans="1:14" ht="43.5">
       <c r="A9" s="13" t="s">
         <v>48</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="29" hidden="1">
+    <row r="10" spans="1:14" ht="29">
       <c r="A10" s="13" t="s">
         <v>49</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="29" hidden="1">
+    <row r="11" spans="1:14" ht="29">
       <c r="A11" s="13" t="s">
         <v>50</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="58" hidden="1">
+    <row r="12" spans="1:14" ht="58">
       <c r="A12" s="13" t="s">
         <v>51</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="58" hidden="1">
+    <row r="13" spans="1:14" ht="58">
       <c r="A13" s="13" t="s">
         <v>56</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="43.5" hidden="1">
+    <row r="14" spans="1:14" ht="43.5">
       <c r="A14" s="13" t="s">
         <v>57</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="29" hidden="1">
+    <row r="15" spans="1:14" ht="29">
       <c r="A15" s="13" t="s">
         <v>58</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="29" hidden="1">
+    <row r="16" spans="1:14" ht="29">
       <c r="A16" s="13" t="s">
         <v>59</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="58" hidden="1">
+    <row r="17" spans="1:14" ht="58">
       <c r="A17" s="13" t="s">
         <v>60</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="58" hidden="1">
+    <row r="18" spans="1:14" ht="58">
       <c r="A18" s="13" t="s">
         <v>61</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="43.5" hidden="1">
+    <row r="19" spans="1:14" ht="43.5">
       <c r="A19" s="13" t="s">
         <v>62</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="29" hidden="1">
+    <row r="20" spans="1:14" ht="29">
       <c r="A20" s="13" t="s">
         <v>63</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="29" hidden="1">
+    <row r="21" spans="1:14" ht="29">
       <c r="A21" s="13" t="s">
         <v>64</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="58" hidden="1">
+    <row r="22" spans="1:14" ht="58">
       <c r="A22" s="13" t="s">
         <v>65</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="58" hidden="1">
+    <row r="23" spans="1:14" ht="58">
       <c r="A23" s="13" t="s">
         <v>66</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="43.5" hidden="1">
+    <row r="24" spans="1:14" ht="43.5">
       <c r="A24" s="13" t="s">
         <v>67</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="29" hidden="1">
+    <row r="25" spans="1:14" ht="29">
       <c r="A25" s="13" t="s">
         <v>68</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="29" hidden="1">
+    <row r="26" spans="1:14" ht="29">
       <c r="A26" s="13" t="s">
         <v>69</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="58" hidden="1">
+    <row r="27" spans="1:14" ht="58">
       <c r="A27" s="13" t="s">
         <v>70</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="58" hidden="1">
+    <row r="28" spans="1:14" ht="58">
       <c r="A28" s="13" t="s">
         <v>71</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="43.5" hidden="1">
+    <row r="29" spans="1:14" ht="43.5">
       <c r="A29" s="13" t="s">
         <v>72</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="29" hidden="1">
+    <row r="30" spans="1:14" ht="29">
       <c r="A30" s="13" t="s">
         <v>73</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="29" hidden="1">
+    <row r="31" spans="1:14" ht="29">
       <c r="A31" s="13" t="s">
         <v>74</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="58" hidden="1">
+    <row r="32" spans="1:14" ht="58">
       <c r="A32" s="13" t="s">
         <v>75</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="58" hidden="1">
+    <row r="33" spans="1:14" ht="58">
       <c r="A33" s="13" t="s">
         <v>76</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="43.5" hidden="1">
+    <row r="34" spans="1:14" ht="43.5">
       <c r="A34" s="13" t="s">
         <v>77</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="29" hidden="1">
+    <row r="35" spans="1:14" ht="29">
       <c r="A35" s="13" t="s">
         <v>78</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="29" hidden="1">
+    <row r="36" spans="1:14" ht="29">
       <c r="A36" s="13" t="s">
         <v>79</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="58" hidden="1">
+    <row r="37" spans="1:14" ht="58">
       <c r="A37" s="13" t="s">
         <v>80</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="58" hidden="1">
+    <row r="38" spans="1:14" ht="58">
       <c r="A38" s="13" t="s">
         <v>81</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="43.5" hidden="1">
+    <row r="39" spans="1:14" ht="43.5">
       <c r="A39" s="13" t="s">
         <v>82</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="29" hidden="1">
+    <row r="40" spans="1:14" ht="29">
       <c r="A40" s="13" t="s">
         <v>83</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="29" hidden="1">
+    <row r="41" spans="1:14" ht="29">
       <c r="A41" s="13" t="s">
         <v>84</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="188.5" hidden="1">
+    <row r="42" spans="1:14" ht="188.5">
       <c r="A42" s="13" t="s">
         <v>169</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="159.5" hidden="1">
+    <row r="43" spans="1:14" ht="159.5">
       <c r="A43" s="13" t="s">
         <v>170</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="203" hidden="1">
+    <row r="44" spans="1:14" ht="203">
       <c r="A44" s="13" t="s">
         <v>171</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="246.5" hidden="1">
+    <row r="45" spans="1:14" ht="246.5">
       <c r="A45" s="13" t="s">
         <v>172</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="72.5" hidden="1">
+    <row r="46" spans="1:14" ht="72.5">
       <c r="A46" s="13" t="s">
         <v>173</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="116" hidden="1">
+    <row r="47" spans="1:14" ht="116">
       <c r="A47" s="13" t="s">
         <v>174</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="23" hidden="1">
+    <row r="48" spans="1:14" ht="23">
       <c r="A48" s="13" t="s">
         <v>175</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="23" hidden="1">
+    <row r="49" spans="1:14" ht="23">
       <c r="A49" s="13" t="s">
         <v>176</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="23" hidden="1">
+    <row r="50" spans="1:14" ht="23">
       <c r="A50" s="13" t="s">
         <v>177</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="23" hidden="1">
+    <row r="51" spans="1:14" ht="23">
       <c r="A51" s="13" t="s">
         <v>178</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="23" hidden="1">
+    <row r="52" spans="1:14" ht="23">
       <c r="A52" s="13" t="s">
         <v>179</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="23" hidden="1">
+    <row r="53" spans="1:14" ht="23">
       <c r="A53" s="13" t="s">
         <v>180</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="87" hidden="1">
+    <row r="58" spans="1:14" ht="87">
       <c r="A58" s="13" t="s">
         <v>185</v>
       </c>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14" ht="101.5" hidden="1">
+    <row r="59" spans="1:14" ht="101.5">
       <c r="A59" s="13" t="s">
         <v>186</v>
       </c>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14" ht="29" hidden="1">
+    <row r="60" spans="1:14" ht="29">
       <c r="A60" s="13" t="s">
         <v>187</v>
       </c>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14" ht="101.5" hidden="1">
+    <row r="61" spans="1:14" ht="101.5">
       <c r="A61" s="13" t="s">
         <v>188</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="57" hidden="1" customHeight="1">
+    <row r="62" spans="1:14" ht="57" customHeight="1">
       <c r="A62" s="13" t="s">
         <v>189</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="23" hidden="1">
+    <row r="63" spans="1:14" ht="23">
       <c r="A63" s="13" t="s">
         <v>190</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="23" hidden="1">
+    <row r="64" spans="1:14" ht="23">
       <c r="A64" s="13" t="s">
         <v>191</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="23" hidden="1">
+    <row r="65" spans="1:14" ht="23">
       <c r="A65" s="13" t="s">
         <v>192</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="23" hidden="1">
+    <row r="66" spans="1:14" ht="23">
       <c r="A66" s="13" t="s">
         <v>193</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="23" hidden="1">
+    <row r="67" spans="1:14" ht="23">
       <c r="A67" s="13" t="s">
         <v>194</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="23" hidden="1">
+    <row r="68" spans="1:14" ht="23">
       <c r="A68" s="13" t="s">
         <v>195</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="23" hidden="1">
+    <row r="69" spans="1:14" ht="23">
       <c r="A69" s="13" t="s">
         <v>196</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="23" hidden="1">
+    <row r="70" spans="1:14" ht="23">
       <c r="A70" s="13" t="s">
         <v>197</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="23" hidden="1">
+    <row r="71" spans="1:14" ht="23">
       <c r="A71" s="13" t="s">
         <v>198</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="23" hidden="1">
+    <row r="72" spans="1:14" ht="23">
       <c r="A72" s="13" t="s">
         <v>199</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="23" hidden="1">
+    <row r="73" spans="1:14" ht="23">
       <c r="A73" s="13" t="s">
         <v>200</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="23" hidden="1">
+    <row r="74" spans="1:14" ht="23">
       <c r="A74" s="13" t="s">
         <v>201</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="23" hidden="1">
+    <row r="75" spans="1:14" ht="23">
       <c r="A75" s="13" t="s">
         <v>202</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="23" hidden="1">
+    <row r="76" spans="1:14" ht="23">
       <c r="A76" s="13" t="s">
         <v>203</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="23" hidden="1">
+    <row r="77" spans="1:14" ht="23">
       <c r="A77" s="13" t="s">
         <v>204</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="23" hidden="1">
+    <row r="78" spans="1:14" ht="23">
       <c r="A78" s="13" t="s">
         <v>205</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="23" hidden="1">
+    <row r="79" spans="1:14" ht="23">
       <c r="A79" s="13" t="s">
         <v>206</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="23" hidden="1">
+    <row r="80" spans="1:14" ht="23">
       <c r="A80" s="13" t="s">
         <v>207</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="23" hidden="1">
+    <row r="81" spans="1:14" ht="23">
       <c r="A81" s="13" t="s">
         <v>208</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="23" hidden="1">
+    <row r="82" spans="1:14" ht="23">
       <c r="A82" s="13" t="s">
         <v>209</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="23" hidden="1">
+    <row r="83" spans="1:14" ht="23">
       <c r="A83" s="13" t="s">
         <v>210</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="23" hidden="1">
+    <row r="84" spans="1:14" ht="23">
       <c r="A84" s="13" t="s">
         <v>211</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="23" hidden="1">
+    <row r="85" spans="1:14" ht="23">
       <c r="A85" s="13" t="s">
         <v>212</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="23" hidden="1">
+    <row r="86" spans="1:14" ht="23">
       <c r="A86" s="13" t="s">
         <v>213</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="23" hidden="1">
+    <row r="87" spans="1:14" ht="23">
       <c r="A87" s="13" t="s">
         <v>214</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="23" hidden="1">
+    <row r="88" spans="1:14" ht="23">
       <c r="A88" s="13" t="s">
         <v>215</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="23" hidden="1">
+    <row r="89" spans="1:14" ht="23">
       <c r="A89" s="13" t="s">
         <v>216</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="23" hidden="1">
+    <row r="90" spans="1:14" ht="23">
       <c r="A90" s="13" t="s">
         <v>217</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="23" hidden="1">
+    <row r="91" spans="1:14" ht="23">
       <c r="A91" s="13" t="s">
         <v>218</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="23" hidden="1">
+    <row r="92" spans="1:14" ht="23">
       <c r="A92" s="13" t="s">
         <v>219</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="23" hidden="1">
+    <row r="93" spans="1:14" ht="23">
       <c r="A93" s="13" t="s">
         <v>220</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="23" hidden="1">
+    <row r="94" spans="1:14" ht="23">
       <c r="A94" s="13" t="s">
         <v>221</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="23" hidden="1">
+    <row r="95" spans="1:14" ht="23">
       <c r="A95" s="13" t="s">
         <v>222</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="23" hidden="1">
+    <row r="96" spans="1:14" ht="23">
       <c r="A96" s="13" t="s">
         <v>223</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="23" hidden="1">
+    <row r="97" spans="1:14" ht="23">
       <c r="A97" s="13" t="s">
         <v>224</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="23" hidden="1">
+    <row r="98" spans="1:14" ht="23">
       <c r="A98" s="13" t="s">
         <v>225</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="23" hidden="1">
+    <row r="99" spans="1:14" ht="23">
       <c r="A99" s="13" t="s">
         <v>226</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1">
+    <row r="100" spans="1:14">
       <c r="A100" s="13"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -6315,7 +6315,7 @@
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
     </row>
-    <row r="101" spans="1:14" hidden="1">
+    <row r="101" spans="1:14">
       <c r="A101" s="13"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -6331,7 +6331,7 @@
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
     </row>
-    <row r="102" spans="1:14" hidden="1">
+    <row r="102" spans="1:14">
       <c r="A102" s="13"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -6347,7 +6347,7 @@
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
     </row>
-    <row r="103" spans="1:14" hidden="1">
+    <row r="103" spans="1:14">
       <c r="A103" s="13"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -6363,7 +6363,7 @@
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
     </row>
-    <row r="104" spans="1:14" hidden="1">
+    <row r="104" spans="1:14">
       <c r="A104" s="13"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -6379,7 +6379,7 @@
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
     </row>
-    <row r="105" spans="1:14" hidden="1">
+    <row r="105" spans="1:14">
       <c r="A105" s="13"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6395,7 +6395,7 @@
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
     </row>
-    <row r="106" spans="1:14" hidden="1">
+    <row r="106" spans="1:14">
       <c r="A106" s="13"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6411,7 +6411,7 @@
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
     </row>
-    <row r="107" spans="1:14" hidden="1">
+    <row r="107" spans="1:14">
       <c r="A107" s="13"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6427,7 +6427,7 @@
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
     </row>
-    <row r="108" spans="1:14" hidden="1">
+    <row r="108" spans="1:14">
       <c r="A108" s="13"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6443,7 +6443,7 @@
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
     </row>
-    <row r="109" spans="1:14" hidden="1">
+    <row r="109" spans="1:14">
       <c r="A109" s="13"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6459,7 +6459,7 @@
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
     </row>
-    <row r="110" spans="1:14" hidden="1">
+    <row r="110" spans="1:14">
       <c r="A110" s="13"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6475,7 +6475,7 @@
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
     </row>
-    <row r="111" spans="1:14" hidden="1">
+    <row r="111" spans="1:14">
       <c r="A111" s="13"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6491,7 +6491,7 @@
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
     </row>
-    <row r="112" spans="1:14" hidden="1">
+    <row r="112" spans="1:14">
       <c r="A112" s="13"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6507,7 +6507,7 @@
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
     </row>
-    <row r="113" spans="1:14" hidden="1">
+    <row r="113" spans="1:14">
       <c r="A113" s="13"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6523,7 +6523,7 @@
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
     </row>
-    <row r="114" spans="1:14" hidden="1">
+    <row r="114" spans="1:14">
       <c r="A114" s="13"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6539,7 +6539,7 @@
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
     </row>
-    <row r="115" spans="1:14" hidden="1">
+    <row r="115" spans="1:14">
       <c r="A115" s="13"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6555,7 +6555,7 @@
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
     </row>
-    <row r="116" spans="1:14" hidden="1">
+    <row r="116" spans="1:14">
       <c r="A116" s="13"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6571,7 +6571,7 @@
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
     </row>
-    <row r="117" spans="1:14" hidden="1">
+    <row r="117" spans="1:14">
       <c r="A117" s="13"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6587,7 +6587,7 @@
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
     </row>
-    <row r="118" spans="1:14" hidden="1">
+    <row r="118" spans="1:14">
       <c r="A118" s="13"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6603,7 +6603,7 @@
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
     </row>
-    <row r="119" spans="1:14" hidden="1">
+    <row r="119" spans="1:14">
       <c r="A119" s="13"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6619,7 +6619,7 @@
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
     </row>
-    <row r="120" spans="1:14" hidden="1">
+    <row r="120" spans="1:14">
       <c r="A120" s="13"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6635,7 +6635,7 @@
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
     </row>
-    <row r="121" spans="1:14" hidden="1">
+    <row r="121" spans="1:14">
       <c r="A121" s="13"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6651,7 +6651,7 @@
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
     </row>
-    <row r="122" spans="1:14" hidden="1">
+    <row r="122" spans="1:14">
       <c r="A122" s="13"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6667,7 +6667,7 @@
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
     </row>
-    <row r="123" spans="1:14" hidden="1">
+    <row r="123" spans="1:14">
       <c r="A123" s="13"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6683,7 +6683,7 @@
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
     </row>
-    <row r="124" spans="1:14" hidden="1">
+    <row r="124" spans="1:14">
       <c r="A124" s="13"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6699,7 +6699,7 @@
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
     </row>
-    <row r="125" spans="1:14" hidden="1">
+    <row r="125" spans="1:14">
       <c r="A125" s="13"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6715,7 +6715,7 @@
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
     </row>
-    <row r="126" spans="1:14" hidden="1">
+    <row r="126" spans="1:14">
       <c r="A126" s="13"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6731,7 +6731,7 @@
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
     </row>
-    <row r="127" spans="1:14" hidden="1">
+    <row r="127" spans="1:14">
       <c r="A127" s="13"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6747,7 +6747,7 @@
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
     </row>
-    <row r="128" spans="1:14" hidden="1">
+    <row r="128" spans="1:14">
       <c r="A128" s="13"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6763,26 +6763,20 @@
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
     </row>
-    <row r="129" spans="1:1" hidden="1">
+    <row r="129" spans="1:1">
       <c r="A129" s="11"/>
     </row>
-    <row r="130" spans="1:1" hidden="1">
+    <row r="130" spans="1:1">
       <c r="A130" s="11"/>
     </row>
-    <row r="131" spans="1:1" hidden="1">
+    <row r="131" spans="1:1">
       <c r="A131" s="11"/>
     </row>
-    <row r="132" spans="1:1" hidden="1">
+    <row r="132" spans="1:1">
       <c r="A132" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L132">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="CIS CDR Check"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="L1:L132"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7410,6 +7404,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G19"/>
@@ -7426,15 +7429,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Migration Test Suite_n-Data-Requirement-SIT-P1-Set-PA1.xlsx
+++ b/Migration Test Suite_n-Data-Requirement-SIT-P1-Set-PA1.xlsx
@@ -1984,14 +1984,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2055,7 +2055,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="58">
+    <row r="2" spans="1:14" ht="58" hidden="1">
       <c r="A2" s="13" t="s">
         <v>30</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="58">
+    <row r="3" spans="1:14" ht="58" hidden="1">
       <c r="A3" s="13" t="s">
         <v>31</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="43.5">
+    <row r="4" spans="1:14" ht="43.5" hidden="1">
       <c r="A4" s="13" t="s">
         <v>43</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="29">
+    <row r="5" spans="1:14" ht="29" hidden="1">
       <c r="A5" s="13" t="s">
         <v>44</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="29">
+    <row r="6" spans="1:14" ht="29" hidden="1">
       <c r="A6" s="13" t="s">
         <v>45</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="58">
+    <row r="7" spans="1:14" ht="58" hidden="1">
       <c r="A7" s="13" t="s">
         <v>46</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="58">
+    <row r="8" spans="1:14" ht="58" hidden="1">
       <c r="A8" s="13" t="s">
         <v>47</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="43.5">
+    <row r="9" spans="1:14" ht="43.5" hidden="1">
       <c r="A9" s="13" t="s">
         <v>48</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="29">
+    <row r="10" spans="1:14" ht="29" hidden="1">
       <c r="A10" s="13" t="s">
         <v>49</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="29">
+    <row r="11" spans="1:14" ht="29" hidden="1">
       <c r="A11" s="13" t="s">
         <v>50</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="58">
+    <row r="12" spans="1:14" ht="58" hidden="1">
       <c r="A12" s="13" t="s">
         <v>51</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="58">
+    <row r="13" spans="1:14" ht="58" hidden="1">
       <c r="A13" s="13" t="s">
         <v>56</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="43.5">
+    <row r="14" spans="1:14" ht="43.5" hidden="1">
       <c r="A14" s="13" t="s">
         <v>57</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="29">
+    <row r="15" spans="1:14" ht="29" hidden="1">
       <c r="A15" s="13" t="s">
         <v>58</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="29">
+    <row r="16" spans="1:14" ht="29" hidden="1">
       <c r="A16" s="13" t="s">
         <v>59</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="58">
+    <row r="17" spans="1:14" ht="58" hidden="1">
       <c r="A17" s="13" t="s">
         <v>60</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="58">
+    <row r="18" spans="1:14" ht="58" hidden="1">
       <c r="A18" s="13" t="s">
         <v>61</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="43.5">
+    <row r="19" spans="1:14" ht="43.5" hidden="1">
       <c r="A19" s="13" t="s">
         <v>62</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="29">
+    <row r="20" spans="1:14" ht="29" hidden="1">
       <c r="A20" s="13" t="s">
         <v>63</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="29">
+    <row r="21" spans="1:14" ht="29" hidden="1">
       <c r="A21" s="13" t="s">
         <v>64</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="58">
+    <row r="22" spans="1:14" ht="58" hidden="1">
       <c r="A22" s="13" t="s">
         <v>65</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="58">
+    <row r="23" spans="1:14" ht="58" hidden="1">
       <c r="A23" s="13" t="s">
         <v>66</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="43.5">
+    <row r="24" spans="1:14" ht="43.5" hidden="1">
       <c r="A24" s="13" t="s">
         <v>67</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="29">
+    <row r="25" spans="1:14" ht="29" hidden="1">
       <c r="A25" s="13" t="s">
         <v>68</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="29">
+    <row r="26" spans="1:14" ht="29" hidden="1">
       <c r="A26" s="13" t="s">
         <v>69</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="58">
+    <row r="27" spans="1:14" ht="58" hidden="1">
       <c r="A27" s="13" t="s">
         <v>70</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="58">
+    <row r="28" spans="1:14" ht="58" hidden="1">
       <c r="A28" s="13" t="s">
         <v>71</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="43.5">
+    <row r="29" spans="1:14" ht="43.5" hidden="1">
       <c r="A29" s="13" t="s">
         <v>72</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="29">
+    <row r="30" spans="1:14" ht="29" hidden="1">
       <c r="A30" s="13" t="s">
         <v>73</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="29">
+    <row r="31" spans="1:14" ht="29" hidden="1">
       <c r="A31" s="13" t="s">
         <v>74</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="58">
+    <row r="32" spans="1:14" ht="58" hidden="1">
       <c r="A32" s="13" t="s">
         <v>75</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="58">
+    <row r="33" spans="1:14" ht="58" hidden="1">
       <c r="A33" s="13" t="s">
         <v>76</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="43.5">
+    <row r="34" spans="1:14" ht="43.5" hidden="1">
       <c r="A34" s="13" t="s">
         <v>77</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="29">
+    <row r="35" spans="1:14" ht="29" hidden="1">
       <c r="A35" s="13" t="s">
         <v>78</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="29">
+    <row r="36" spans="1:14" ht="29" hidden="1">
       <c r="A36" s="13" t="s">
         <v>79</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="58">
+    <row r="37" spans="1:14" ht="58" hidden="1">
       <c r="A37" s="13" t="s">
         <v>80</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="58">
+    <row r="38" spans="1:14" ht="58" hidden="1">
       <c r="A38" s="13" t="s">
         <v>81</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="43.5">
+    <row r="39" spans="1:14" ht="43.5" hidden="1">
       <c r="A39" s="13" t="s">
         <v>82</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="29">
+    <row r="40" spans="1:14" ht="29" hidden="1">
       <c r="A40" s="13" t="s">
         <v>83</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="29">
+    <row r="41" spans="1:14" ht="29" hidden="1">
       <c r="A41" s="13" t="s">
         <v>84</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="188.5">
+    <row r="42" spans="1:14" ht="188.5" hidden="1">
       <c r="A42" s="13" t="s">
         <v>169</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="159.5">
+    <row r="43" spans="1:14" ht="159.5" hidden="1">
       <c r="A43" s="13" t="s">
         <v>170</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="203">
+    <row r="44" spans="1:14" ht="203" hidden="1">
       <c r="A44" s="13" t="s">
         <v>171</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="72.5">
+    <row r="46" spans="1:14" ht="72.5" hidden="1">
       <c r="A46" s="13" t="s">
         <v>173</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="23">
+    <row r="48" spans="1:14" ht="23" hidden="1">
       <c r="A48" s="13" t="s">
         <v>175</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="23">
+    <row r="49" spans="1:14" ht="23" hidden="1">
       <c r="A49" s="13" t="s">
         <v>176</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="23">
+    <row r="50" spans="1:14" ht="23" hidden="1">
       <c r="A50" s="13" t="s">
         <v>177</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="23">
+    <row r="51" spans="1:14" ht="23" hidden="1">
       <c r="A51" s="13" t="s">
         <v>178</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="23">
+    <row r="52" spans="1:14" ht="23" hidden="1">
       <c r="A52" s="13" t="s">
         <v>179</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="23">
+    <row r="53" spans="1:14" ht="23" hidden="1">
       <c r="A53" s="13" t="s">
         <v>180</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="72.5">
+    <row r="54" spans="1:14" ht="72.5" hidden="1">
       <c r="A54" s="13" t="s">
         <v>181</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="72.5">
+    <row r="55" spans="1:14" ht="72.5" hidden="1">
       <c r="A55" s="13" t="s">
         <v>182</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="23">
+    <row r="56" spans="1:14" ht="23" hidden="1">
       <c r="A56" s="13" t="s">
         <v>183</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="23">
+    <row r="57" spans="1:14" ht="23" hidden="1">
       <c r="A57" s="13" t="s">
         <v>184</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="87">
+    <row r="58" spans="1:14" ht="87" hidden="1">
       <c r="A58" s="13" t="s">
         <v>185</v>
       </c>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14" ht="101.5">
+    <row r="59" spans="1:14" ht="101.5" hidden="1">
       <c r="A59" s="13" t="s">
         <v>186</v>
       </c>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14" ht="29">
+    <row r="60" spans="1:14" ht="29" hidden="1">
       <c r="A60" s="13" t="s">
         <v>187</v>
       </c>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14" ht="101.5">
+    <row r="61" spans="1:14" ht="101.5" hidden="1">
       <c r="A61" s="13" t="s">
         <v>188</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="57" customHeight="1">
+    <row r="62" spans="1:14" ht="57" hidden="1" customHeight="1">
       <c r="A62" s="13" t="s">
         <v>189</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="23">
+    <row r="63" spans="1:14" ht="23" hidden="1">
       <c r="A63" s="13" t="s">
         <v>190</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="23">
+    <row r="64" spans="1:14" ht="23" hidden="1">
       <c r="A64" s="13" t="s">
         <v>191</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="23">
+    <row r="65" spans="1:14" ht="23" hidden="1">
       <c r="A65" s="13" t="s">
         <v>192</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="23">
+    <row r="66" spans="1:14" ht="23" hidden="1">
       <c r="A66" s="13" t="s">
         <v>193</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="23">
+    <row r="67" spans="1:14" ht="23" hidden="1">
       <c r="A67" s="13" t="s">
         <v>194</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="23">
+    <row r="68" spans="1:14" ht="23" hidden="1">
       <c r="A68" s="13" t="s">
         <v>195</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="23">
+    <row r="69" spans="1:14" ht="23" hidden="1">
       <c r="A69" s="13" t="s">
         <v>196</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="23">
+    <row r="70" spans="1:14" ht="23" hidden="1">
       <c r="A70" s="13" t="s">
         <v>197</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="23">
+    <row r="71" spans="1:14" ht="23" hidden="1">
       <c r="A71" s="13" t="s">
         <v>198</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="23">
+    <row r="72" spans="1:14" ht="23" hidden="1">
       <c r="A72" s="13" t="s">
         <v>199</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="23">
+    <row r="73" spans="1:14" ht="23" hidden="1">
       <c r="A73" s="13" t="s">
         <v>200</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="23">
+    <row r="74" spans="1:14" ht="23" hidden="1">
       <c r="A74" s="13" t="s">
         <v>201</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="23">
+    <row r="75" spans="1:14" ht="23" hidden="1">
       <c r="A75" s="13" t="s">
         <v>202</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="23">
+    <row r="76" spans="1:14" ht="23" hidden="1">
       <c r="A76" s="13" t="s">
         <v>203</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="23">
+    <row r="77" spans="1:14" ht="23" hidden="1">
       <c r="A77" s="13" t="s">
         <v>204</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="23">
+    <row r="78" spans="1:14" ht="23" hidden="1">
       <c r="A78" s="13" t="s">
         <v>205</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="23">
+    <row r="79" spans="1:14" ht="23" hidden="1">
       <c r="A79" s="13" t="s">
         <v>206</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="23">
+    <row r="80" spans="1:14" ht="23" hidden="1">
       <c r="A80" s="13" t="s">
         <v>207</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="23">
+    <row r="81" spans="1:14" ht="23" hidden="1">
       <c r="A81" s="13" t="s">
         <v>208</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="23">
+    <row r="82" spans="1:14" ht="23" hidden="1">
       <c r="A82" s="13" t="s">
         <v>209</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="23">
+    <row r="83" spans="1:14" ht="23" hidden="1">
       <c r="A83" s="13" t="s">
         <v>210</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="23">
+    <row r="84" spans="1:14" ht="23" hidden="1">
       <c r="A84" s="13" t="s">
         <v>211</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="23">
+    <row r="85" spans="1:14" ht="23" hidden="1">
       <c r="A85" s="13" t="s">
         <v>212</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="23">
+    <row r="86" spans="1:14" ht="23" hidden="1">
       <c r="A86" s="13" t="s">
         <v>213</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="23">
+    <row r="87" spans="1:14" ht="23" hidden="1">
       <c r="A87" s="13" t="s">
         <v>214</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="23">
+    <row r="88" spans="1:14" ht="23" hidden="1">
       <c r="A88" s="13" t="s">
         <v>215</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="23">
+    <row r="89" spans="1:14" ht="23" hidden="1">
       <c r="A89" s="13" t="s">
         <v>216</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="23">
+    <row r="90" spans="1:14" ht="23" hidden="1">
       <c r="A90" s="13" t="s">
         <v>217</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="23">
+    <row r="91" spans="1:14" ht="23" hidden="1">
       <c r="A91" s="13" t="s">
         <v>218</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="23">
+    <row r="92" spans="1:14" ht="23" hidden="1">
       <c r="A92" s="13" t="s">
         <v>219</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="23">
+    <row r="93" spans="1:14" ht="23" hidden="1">
       <c r="A93" s="13" t="s">
         <v>220</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="23">
+    <row r="94" spans="1:14" ht="23" hidden="1">
       <c r="A94" s="13" t="s">
         <v>221</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="23">
+    <row r="95" spans="1:14" ht="23" hidden="1">
       <c r="A95" s="13" t="s">
         <v>222</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="23">
+    <row r="96" spans="1:14" ht="23" hidden="1">
       <c r="A96" s="13" t="s">
         <v>223</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="23">
+    <row r="97" spans="1:14" ht="23" hidden="1">
       <c r="A97" s="13" t="s">
         <v>224</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="23">
+    <row r="98" spans="1:14" ht="23" hidden="1">
       <c r="A98" s="13" t="s">
         <v>225</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="23">
+    <row r="99" spans="1:14" ht="23" hidden="1">
       <c r="A99" s="13" t="s">
         <v>226</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" hidden="1">
       <c r="A100" s="13"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -6315,7 +6315,7 @@
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" hidden="1">
       <c r="A101" s="13"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -6331,7 +6331,7 @@
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" hidden="1">
       <c r="A102" s="13"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -6347,7 +6347,7 @@
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" hidden="1">
       <c r="A103" s="13"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -6363,7 +6363,7 @@
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" hidden="1">
       <c r="A104" s="13"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -6379,7 +6379,7 @@
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" hidden="1">
       <c r="A105" s="13"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6395,7 +6395,7 @@
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" hidden="1">
       <c r="A106" s="13"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6411,7 +6411,7 @@
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" hidden="1">
       <c r="A107" s="13"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6427,7 +6427,7 @@
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" hidden="1">
       <c r="A108" s="13"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6443,7 +6443,7 @@
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" hidden="1">
       <c r="A109" s="13"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6459,7 +6459,7 @@
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" hidden="1">
       <c r="A110" s="13"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6475,7 +6475,7 @@
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" hidden="1">
       <c r="A111" s="13"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6491,7 +6491,7 @@
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" hidden="1">
       <c r="A112" s="13"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6507,7 +6507,7 @@
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" hidden="1">
       <c r="A113" s="13"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6523,7 +6523,7 @@
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" hidden="1">
       <c r="A114" s="13"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6539,7 +6539,7 @@
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" hidden="1">
       <c r="A115" s="13"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6555,7 +6555,7 @@
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" hidden="1">
       <c r="A116" s="13"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6571,7 +6571,7 @@
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" hidden="1">
       <c r="A117" s="13"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6587,7 +6587,7 @@
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" hidden="1">
       <c r="A118" s="13"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6603,7 +6603,7 @@
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" hidden="1">
       <c r="A119" s="13"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6619,7 +6619,7 @@
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" hidden="1">
       <c r="A120" s="13"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6635,7 +6635,7 @@
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" hidden="1">
       <c r="A121" s="13"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6651,7 +6651,7 @@
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" hidden="1">
       <c r="A122" s="13"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6667,7 +6667,7 @@
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" hidden="1">
       <c r="A123" s="13"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6683,7 +6683,7 @@
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" hidden="1">
       <c r="A124" s="13"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6699,7 +6699,7 @@
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" hidden="1">
       <c r="A125" s="13"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6715,7 +6715,7 @@
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" hidden="1">
       <c r="A126" s="13"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6731,7 +6731,7 @@
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" hidden="1">
       <c r="A127" s="13"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6747,7 +6747,7 @@
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" hidden="1">
       <c r="A128" s="13"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6763,20 +6763,27 @@
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" hidden="1">
       <c r="A129" s="11"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" hidden="1">
       <c r="A130" s="11"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" hidden="1">
       <c r="A131" s="11"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" hidden="1">
       <c r="A132" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L132"/>
+  <autoFilter ref="L1:L132">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Grace Delete"/>
+        <filter val="Renewal Simulation"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7404,15 +7411,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G19"/>
@@ -7429,6 +7427,15 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Migration Test Suite_n-Data-Requirement-SIT-P1-Set-PA1.xlsx
+++ b/Migration Test Suite_n-Data-Requirement-SIT-P1-Set-PA1.xlsx
@@ -1989,9 +1989,9 @@
   </sheetPr>
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K47" sqref="K47"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7411,6 +7411,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G19"/>
@@ -7427,15 +7436,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
